--- a/rgr4/rgr4.xlsx
+++ b/rgr4/rgr4.xlsx
@@ -427,404 +427,404 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.02203683827426244</v>
+        <v>0.104012573964497</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.2e-05</v>
+        <v>5.999999999999999e-06</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02203666197955624</v>
+        <v>0.1040117418639053</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.4e-05</v>
+        <v>1.2e-05</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02203542791661288</v>
+        <v>0.1040059171597633</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.599999999999999e-05</v>
+        <v>1.8e-05</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02203207831719519</v>
+        <v>0.1039901072485207</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.799999999999999e-05</v>
+        <v>2.4e-05</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02202555541306601</v>
+        <v>0.1039593195266272</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.999999999999999e-05</v>
+        <v>3e-05</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02201480143598817</v>
+        <v>0.1039085613905325</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.199999999999999e-05</v>
+        <v>3.599999999999999e-05</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02199875861772451</v>
+        <v>0.1038328402366864</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.399999999999998e-05</v>
+        <v>4.199999999999999e-05</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02197636919003786</v>
+        <v>0.1037271634615384</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9.599999999999998e-05</v>
+        <v>4.799999999999999e-05</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02194657538469106</v>
+        <v>0.1035865384615385</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.000108</v>
+        <v>5.399999999999998e-05</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02190831943344694</v>
+        <v>0.1034059726331361</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.00012</v>
+        <v>5.999999999999998e-05</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02186054356806834</v>
+        <v>0.1031804733727811</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.000132</v>
+        <v>6.599999999999998e-05</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02180219002031809</v>
+        <v>0.1029050480769231</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0001439999999999999</v>
+        <v>7.199999999999997e-05</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02173220102195903</v>
+        <v>0.1025747041420118</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0001559999999999999</v>
+        <v>7.799999999999997e-05</v>
       </c>
       <c r="B14" t="n">
-        <v>0.021649518804754</v>
+        <v>0.102184448964497</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.0001679999999999999</v>
+        <v>8.399999999999997e-05</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02155308560046583</v>
+        <v>0.1017292899408284</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0001799999999999999</v>
+        <v>8.999999999999997e-05</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02144184364085735</v>
+        <v>0.1012042344674556</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0001919999999999999</v>
+        <v>9.599999999999996e-05</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0213147351576914</v>
+        <v>0.1006042899408284</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0002039999999999999</v>
+        <v>0.000102</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02117070238273082</v>
+        <v>0.09992446375739644</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0002159999999999999</v>
+        <v>0.000108</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02100868754773845</v>
+        <v>0.09915976331360946</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0002279999999999999</v>
+        <v>0.000114</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02082763288447711</v>
+        <v>0.09830519600591717</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0002399999999999999</v>
+        <v>0.0001199999999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02062648062470964</v>
+        <v>0.09735576923076922</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.0002519999999999999</v>
+        <v>0.0001259999999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02040417300019888</v>
+        <v>0.09630649038461539</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.0002639999999999999</v>
+        <v>0.000132</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02015965224270766</v>
+        <v>0.09515236686390531</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.0002759999999999999</v>
+        <v>0.000138</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01989186058399883</v>
+        <v>0.09388840606508876</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.000288</v>
+        <v>0.000144</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0195997402558352</v>
+        <v>0.09250961538461538</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.0003</v>
+        <v>0.00015</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01928223348997963</v>
+        <v>0.09101100221893491</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.000312</v>
+        <v>0.000156</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01893828251819494</v>
+        <v>0.08938757396449704</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.000324</v>
+        <v>0.000162</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01856682957224397</v>
+        <v>0.08763433801775146</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.000336</v>
+        <v>0.000168</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01816681688388956</v>
+        <v>0.0857463017751479</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.0003480000000000001</v>
+        <v>0.000174</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01773718668489454</v>
+        <v>0.08371847263313607</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.0003600000000000001</v>
+        <v>0.00018</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01727688120702174</v>
+        <v>0.08154585798816566</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.0003720000000000001</v>
+        <v>0.000186</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01678484268203401</v>
+        <v>0.07922346523668636</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.0003840000000000001</v>
+        <v>0.0001920000000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01626001334169417</v>
+        <v>0.07674630177514788</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.0003960000000000001</v>
+        <v>0.0001980000000000001</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01570133541776507</v>
+        <v>0.07410937499999995</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.0004080000000000002</v>
+        <v>0.0002040000000000001</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01510775114200954</v>
+        <v>0.07130769230769225</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.0004200000000000002</v>
+        <v>0.0002100000000000001</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01447820274619041</v>
+        <v>0.06833626109467449</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.0004320000000000002</v>
+        <v>0.0002160000000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01381163246207051</v>
+        <v>0.06519008875739637</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.0004440000000000002</v>
+        <v>0.0002220000000000001</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0131069825214127</v>
+        <v>0.06186418269230761</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.0004560000000000002</v>
+        <v>0.0002280000000000001</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01236319515597979</v>
+        <v>0.0583535502958579</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.0004680000000000003</v>
+        <v>0.0002340000000000001</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01157921259753463</v>
+        <v>0.05465319896449694</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.0004800000000000003</v>
+        <v>0.0002400000000000001</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01075397707784004</v>
+        <v>0.05075813609467444</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.0004920000000000002</v>
+        <v>0.0002460000000000001</v>
       </c>
       <c r="B42" t="n">
-        <v>0.009886430828658884</v>
+        <v>0.04666336908284014</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.0005040000000000002</v>
+        <v>0.0002520000000000001</v>
       </c>
       <c r="B43" t="n">
-        <v>0.008975516081753973</v>
+        <v>0.04236390532544369</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.0005160000000000002</v>
+        <v>0.0002580000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>0.00802017506888815</v>
+        <v>0.03785475221893483</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.0005280000000000001</v>
+        <v>0.0002640000000000001</v>
       </c>
       <c r="B45" t="n">
-        <v>0.007019350021824248</v>
+        <v>0.03313091715976323</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.0005400000000000001</v>
+        <v>0.0002700000000000001</v>
       </c>
       <c r="B46" t="n">
-        <v>0.005971983172325105</v>
+        <v>0.02818740754437863</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.0005520000000000001</v>
+        <v>0.000276</v>
       </c>
       <c r="B47" t="n">
-        <v>0.004877016752153555</v>
+        <v>0.02301923076923071</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.000564</v>
+        <v>0.000282</v>
       </c>
       <c r="B48" t="n">
-        <v>0.003733392993072434</v>
+        <v>0.01762139423076918</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.000576</v>
+        <v>0.000288</v>
       </c>
       <c r="B49" t="n">
-        <v>0.00254005412684458</v>
+        <v>0.01198890532544376</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.000588</v>
+        <v>0.000294</v>
       </c>
       <c r="B50" t="n">
-        <v>0.001295942385232823</v>
+        <v>0.006116771449704132</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0003</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -832,394 +832,394 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.0006119999999999999</v>
+        <v>0.000306</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.00134883079709105</v>
+        <v>-0.006366401627218911</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.0006239999999999999</v>
+        <v>0.0003119999999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.002751607774277498</v>
+        <v>-0.01298742603550293</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.0006359999999999998</v>
+        <v>0.0003179999999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.004209388699796497</v>
+        <v>-0.01986806582840229</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.0006479999999999998</v>
+        <v>0.0003239999999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.005723231341885229</v>
+        <v>-0.02701331360946738</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.0006599999999999998</v>
+        <v>0.0003299999999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.007294193468780841</v>
+        <v>-0.0344281619822484</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.0006719999999999997</v>
+        <v>0.0003359999999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.008923332848720513</v>
+        <v>-0.04211760355029573</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.0006839999999999997</v>
+        <v>0.0003419999999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.0106117072499414</v>
+        <v>-0.05008663091715961</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.0006959999999999997</v>
+        <v>0.0003479999999999998</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.01236037444068066</v>
+        <v>-0.05834023668639034</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.0007079999999999996</v>
+        <v>0.0003539999999999998</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.01417039218917547</v>
+        <v>-0.06688341346153824</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.0007199999999999996</v>
+        <v>0.0003599999999999998</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.016042818263663</v>
+        <v>-0.07572115384615358</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.0007319999999999996</v>
+        <v>0.0003659999999999998</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.0179787104323804</v>
+        <v>-0.08485845044378668</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.0007439999999999995</v>
+        <v>0.0003719999999999998</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.01997912646356484</v>
+        <v>-0.09430029585798783</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.0007559999999999995</v>
+        <v>0.0003779999999999998</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.02204512412545348</v>
+        <v>-0.1040516826923073</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0007679999999999995</v>
+        <v>0.0003839999999999997</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.02417776118628349</v>
+        <v>-0.1141176035502954</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.0007799999999999994</v>
+        <v>0.0003899999999999997</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.02637809541429203</v>
+        <v>-0.1245030510355025</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.0007919999999999994</v>
+        <v>0.0003959999999999997</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.02864718457771628</v>
+        <v>-0.1352130177514788</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.0008039999999999994</v>
+        <v>0.0004019999999999997</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.03098608644479338</v>
+        <v>-0.1462524963017746</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.0008159999999999993</v>
+        <v>0.0004079999999999997</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.03339585878376053</v>
+        <v>-0.1576264792899403</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.0008279999999999993</v>
+        <v>0.0004139999999999997</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.03587755936285485</v>
+        <v>-0.169339959319526</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.0008399999999999993</v>
+        <v>0.0004199999999999996</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.03843224595031354</v>
+        <v>-0.1813979289940821</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.0008519999999999992</v>
+        <v>0.0004259999999999996</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.04106097631437375</v>
+        <v>-0.193805380917159</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.0008639999999999992</v>
+        <v>0.0004319999999999996</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.04376480822327264</v>
+        <v>-0.2065673076923069</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.0008759999999999992</v>
+        <v>0.0004379999999999996</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.04654479944524737</v>
+        <v>-0.219688701923076</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.0008879999999999991</v>
+        <v>0.0004439999999999996</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.04940200774853514</v>
+        <v>-0.2331745562130168</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.0008999999999999991</v>
+        <v>0.0004499999999999996</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.05233749090137307</v>
+        <v>-0.2470298631656794</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.0009119999999999991</v>
+        <v>0.0004559999999999995</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.05535230667199835</v>
+        <v>-0.2612596153846143</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.000923999999999999</v>
+        <v>0.0004619999999999995</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.05844751282864814</v>
+        <v>-0.2758688054733716</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.000935999999999999</v>
+        <v>0.0004679999999999995</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.06162416713955961</v>
+        <v>-0.2908624260355017</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.000947999999999999</v>
+        <v>0.0004739999999999995</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.0648833273729699</v>
+        <v>-0.3062454696745549</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.0009599999999999989</v>
+        <v>0.0004799999999999995</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.06822605129711622</v>
+        <v>-0.3220229289940815</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.0009719999999999989</v>
+        <v>0.0004859999999999995</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.07165339668023568</v>
+        <v>-0.3381997965976317</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.000983999999999999</v>
+        <v>0.0004919999999999995</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.07516642129056551</v>
+        <v>-0.354781065088756</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.0009959999999999991</v>
+        <v>0.0004979999999999995</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.07876618289634284</v>
+        <v>-0.3717717270710046</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.001007999999999999</v>
+        <v>0.0005039999999999996</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.08245373926580485</v>
+        <v>-0.3891767751479278</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.001019999999999999</v>
+        <v>0.0005099999999999996</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.08623014816718867</v>
+        <v>-0.4070012019230758</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.001031999999999999</v>
+        <v>0.0005159999999999996</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.09009646736873148</v>
+        <v>-0.4252499999999989</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.001043999999999999</v>
+        <v>0.0005219999999999997</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.09405375463867045</v>
+        <v>-0.4439281619822475</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.001055999999999999</v>
+        <v>0.0005279999999999997</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.09810306774524277</v>
+        <v>-0.463040680473372</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.001068</v>
+        <v>0.0005339999999999998</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.1022454644566855</v>
+        <v>-0.4825925480769224</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.00108</v>
+        <v>0.0005399999999999998</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.106482002541236</v>
+        <v>-0.5025887573964491</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.001092</v>
+        <v>0.0005459999999999998</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.1108137397671312</v>
+        <v>-0.5230343010355024</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.001104</v>
+        <v>0.0005519999999999999</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.1152417339026084</v>
+        <v>-0.5439341715976328</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.001116</v>
+        <v>0.0005579999999999999</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.1197670427159048</v>
+        <v>-0.5652933616863902</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.001128</v>
+        <v>0.0005639999999999999</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.1243907239752575</v>
+        <v>-0.5871168639053254</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.00114</v>
+        <v>0.00057</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.1291138354489036</v>
+        <v>-0.6094096708579883</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.001152</v>
+        <v>0.000576</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.1339374349050804</v>
+        <v>-0.6321767751479291</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.001164</v>
+        <v>0.0005820000000000001</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.138862580112025</v>
+        <v>-0.6554231693786986</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.001176</v>
+        <v>0.0005880000000000001</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.1438903288379746</v>
+        <v>-0.6791538461538467</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.001188</v>
+        <v>0.0005940000000000001</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.1490217388511662</v>
+        <v>-0.7033737980769237</v>
       </c>
     </row>
   </sheetData>
@@ -1246,404 +1246,404 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>-9.916577223418092e-06</v>
+        <v>-2.340282914201183e-05</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.2e-05</v>
+        <v>5.999999999999999e-06</v>
       </c>
       <c r="B2" t="n">
-        <v>-9.652135693011062e-06</v>
+        <v>-2.277875494637573e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.4e-05</v>
+        <v>1.2e-05</v>
       </c>
       <c r="B3" t="n">
-        <v>-9.387701566981691e-06</v>
+        <v>-2.215469822485206e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.599999999999999e-05</v>
+        <v>1.8e-05</v>
       </c>
       <c r="B4" t="n">
-        <v>-9.12329388515825e-06</v>
+        <v>-2.153070391087277e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.799999999999999e-05</v>
+        <v>2.4e-05</v>
       </c>
       <c r="B5" t="n">
-        <v>-8.858944380587852e-06</v>
+        <v>-2.090684689349112e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.999999999999999e-05</v>
+        <v>3e-05</v>
       </c>
       <c r="B6" t="n">
-        <v>-8.594697479536461e-06</v>
+        <v>-2.028323201738165e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.199999999999999e-05</v>
+        <v>3.599999999999999e-05</v>
       </c>
       <c r="B7" t="n">
-        <v>-8.330610301488881e-06</v>
+        <v>-1.965999408284023e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.399999999999998e-05</v>
+        <v>4.199999999999999e-05</v>
       </c>
       <c r="B8" t="n">
-        <v>-8.066752659148763e-06</v>
+        <v>-1.903729784578401e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9.599999999999998e-05</v>
+        <v>4.799999999999999e-05</v>
       </c>
       <c r="B9" t="n">
-        <v>-7.803207058438613e-06</v>
+        <v>-1.841533801775147e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.000108</v>
+        <v>5.399999999999998e-05</v>
       </c>
       <c r="B10" t="n">
-        <v>-7.540068698499769e-06</v>
+        <v>-1.779433926590236e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.00012</v>
+        <v>5.999999999999998e-05</v>
       </c>
       <c r="B11" t="n">
-        <v>-7.277445471692424e-06</v>
+        <v>-1.717455621301775e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.000132</v>
+        <v>6.599999999999998e-05</v>
       </c>
       <c r="B12" t="n">
-        <v>-7.015457963595616e-06</v>
+        <v>-1.655627343749999e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0001439999999999999</v>
+        <v>7.199999999999997e-05</v>
       </c>
       <c r="B13" t="n">
-        <v>-6.754239453007226e-06</v>
+        <v>-1.593980547337278e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0001559999999999999</v>
+        <v>7.799999999999997e-05</v>
       </c>
       <c r="B14" t="n">
-        <v>-6.493935911943984e-06</v>
+        <v>-1.532549681028106e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.0001679999999999999</v>
+        <v>8.399999999999997e-05</v>
       </c>
       <c r="B15" t="n">
-        <v>-6.234706005641462e-06</v>
+        <v>-1.471372189349112e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0001799999999999999</v>
+        <v>8.999999999999997e-05</v>
       </c>
       <c r="B16" t="n">
-        <v>-5.976721092554085e-06</v>
+        <v>-1.410488512389053e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0001919999999999999</v>
+        <v>9.599999999999996e-05</v>
       </c>
       <c r="B17" t="n">
-        <v>-5.720165224355117e-06</v>
+        <v>-1.349942085798816e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0002039999999999999</v>
+        <v>0.000102</v>
       </c>
       <c r="B18" t="n">
-        <v>-5.46523514593667e-06</v>
+        <v>-1.28977934079142e-05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0002159999999999999</v>
+        <v>0.000108</v>
       </c>
       <c r="B19" t="n">
-        <v>-5.212140295409704e-06</v>
+        <v>-1.230049704142011e-05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0002279999999999999</v>
+        <v>0.000114</v>
       </c>
       <c r="B20" t="n">
-        <v>-4.961102804104024e-06</v>
+        <v>-1.17080559818787e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0002399999999999999</v>
+        <v>0.0001199999999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>-4.712357496568279e-06</v>
+        <v>-1.112102440828402e-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.0002519999999999999</v>
+        <v>0.0001259999999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>-4.466151890569965e-06</v>
+        <v>-1.053998645525148e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.0002639999999999999</v>
+        <v>0.000132</v>
       </c>
       <c r="B23" t="n">
-        <v>-4.222746197095427e-06</v>
+        <v>-9.965556213017749e-06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.0002759999999999999</v>
+        <v>0.000138</v>
       </c>
       <c r="B24" t="n">
-        <v>-3.98241332034985e-06</v>
+        <v>-9.398377727440823e-06</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.000288</v>
+        <v>0.000144</v>
       </c>
       <c r="B25" t="n">
-        <v>-3.745438857757273e-06</v>
+        <v>-8.839124999999995e-06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.0003</v>
+        <v>0.00015</v>
       </c>
       <c r="B26" t="n">
-        <v>-3.512121099960573e-06</v>
+        <v>-8.288501987795854e-06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.000312</v>
+        <v>0.000156</v>
       </c>
       <c r="B27" t="n">
-        <v>-3.282771030821477e-06</v>
+        <v>-7.747242603550288e-06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.000324</v>
+        <v>0.000162</v>
       </c>
       <c r="B28" t="n">
-        <v>-3.05771232742056e-06</v>
+        <v>-7.216110715606505e-06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.000336</v>
+        <v>0.000168</v>
       </c>
       <c r="B29" t="n">
-        <v>-2.837281360057235e-06</v>
+        <v>-6.695900147928985e-06</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.0003480000000000001</v>
+        <v>0.000174</v>
       </c>
       <c r="B30" t="n">
-        <v>-2.621827192249771e-06</v>
+        <v>-6.187434680103541e-06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.0003600000000000001</v>
+        <v>0.00018</v>
       </c>
       <c r="B31" t="n">
-        <v>-2.411711580735277e-06</v>
+        <v>-5.69156804733727e-06</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.0003720000000000001</v>
+        <v>0.000186</v>
       </c>
       <c r="B32" t="n">
-        <v>-2.207308975469709e-06</v>
+        <v>-5.209183940458572e-06</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.0003840000000000001</v>
+        <v>0.0001920000000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>-2.009006519627868e-06</v>
+        <v>-4.741196005917148e-06</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.0003960000000000001</v>
+        <v>0.0001980000000000001</v>
       </c>
       <c r="B34" t="n">
-        <v>-1.817204049603406e-06</v>
+        <v>-4.288547845784015e-06</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.0004080000000000002</v>
+        <v>0.0002040000000000001</v>
       </c>
       <c r="B35" t="n">
-        <v>-1.632314095008811e-06</v>
+        <v>-3.852213017751466e-06</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.0004200000000000002</v>
+        <v>0.0002100000000000001</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.45476187867543e-06</v>
+        <v>-3.433195035133126e-06</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.0004320000000000002</v>
+        <v>0.0002160000000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.284985316653444e-06</v>
+        <v>-3.032527366863892e-06</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.0004440000000000002</v>
+        <v>0.0002220000000000001</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.123435018211888e-06</v>
+        <v>-2.651273437499987e-06</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.0004560000000000002</v>
+        <v>0.0002280000000000001</v>
       </c>
       <c r="B39" t="n">
-        <v>-9.705742858386385e-07</v>
+        <v>-2.29052662721892e-06</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.0004680000000000003</v>
+        <v>0.0002340000000000001</v>
       </c>
       <c r="B40" t="n">
-        <v>-8.26879115240422e-07</v>
+        <v>-1.951410271819514e-06</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.0004800000000000003</v>
+        <v>0.0002400000000000001</v>
       </c>
       <c r="B41" t="n">
-        <v>-6.928381953428049e-07</v>
+        <v>-1.635077662721879e-06</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.0004920000000000002</v>
+        <v>0.0002460000000000001</v>
       </c>
       <c r="B42" t="n">
-        <v>-5.689529082902081e-07</v>
+        <v>-1.342712046967447e-06</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.0005040000000000002</v>
+        <v>0.0002520000000000001</v>
       </c>
       <c r="B43" t="n">
-        <v>-4.557373294458876e-07</v>
+        <v>-1.075526627218924e-06</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.0005160000000000002</v>
+        <v>0.0002580000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>-3.537182273919562e-07</v>
+        <v>-8.347645617603467e-07</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.0005280000000000001</v>
+        <v>0.0002640000000000001</v>
       </c>
       <c r="B45" t="n">
-        <v>-2.63435063929365e-07</v>
+        <v>-6.216989644970331e-07</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.0005400000000000001</v>
+        <v>0.0002700000000000001</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.854399940779166e-07</v>
+        <v>-4.37632904955617e-07</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.0005520000000000001</v>
+        <v>0.000276</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.202978660762541e-07</v>
+        <v>-2.838994082840209e-07</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.000564</v>
+        <v>0.000282</v>
       </c>
       <c r="B48" t="n">
-        <v>-6.858622138186869e-08</v>
+        <v>-1.618614552514737e-07</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.000576</v>
+        <v>0.000288</v>
       </c>
       <c r="B49" t="n">
-        <v>-3.089529467110091e-08</v>
+        <v>-7.291198224851449e-08</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.000588</v>
+        <v>0.000294</v>
       </c>
       <c r="B50" t="n">
-        <v>-7.828013839135468e-09</v>
+        <v>-1.847388128697958e-08</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0003</v>
       </c>
       <c r="B51" t="n">
         <v>-0</v>
@@ -1651,394 +1651,394 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.0006119999999999999</v>
+        <v>0.000306</v>
       </c>
       <c r="B52" t="n">
-        <v>-8.039567486566354e-09</v>
+        <v>-1.897314164200437e-08</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.0006239999999999999</v>
+        <v>0.0003119999999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>-3.258772385056475e-08</v>
+        <v>-7.690606508875231e-08</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.0006359999999999998</v>
+        <v>0.0003179999999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>-7.42981698625593e-08</v>
+        <v>-1.753414848372768e-07</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.0006479999999999998</v>
+        <v>0.0003239999999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.338372995119583e-07</v>
+        <v>-3.158520710059082e-07</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.0006599999999999998</v>
+        <v>0.0003299999999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>-2.118842000070298e-07</v>
+        <v>-5.000404493343113e-07</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.0006719999999999997</v>
+        <v>0.0003359999999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>-3.091306517748756e-07</v>
+        <v>-7.295392011834237e-07</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.0006839999999999997</v>
+        <v>0.0003419999999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>-4.26281128461447e-07</v>
+        <v>-1.006010863535493e-06</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.0006959999999999997</v>
+        <v>0.0003479999999999998</v>
       </c>
       <c r="B59" t="n">
-        <v>-5.640527969315408e-07</v>
+        <v>-1.331147928994068e-06</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.0007079999999999996</v>
+        <v>0.0003539999999999998</v>
       </c>
       <c r="B60" t="n">
-        <v>-7.231755172688042e-07</v>
+        <v>-1.70667284578401e-06</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.0007199999999999996</v>
+        <v>0.0003599999999999998</v>
       </c>
       <c r="B61" t="n">
-        <v>-9.043918427757237e-07</v>
+        <v>-2.134338017751464e-06</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.0007319999999999996</v>
+        <v>0.0003659999999999998</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.108457019973635e-06</v>
+        <v>-2.615925804363887e-06</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.0007439999999999995</v>
+        <v>0.0003719999999999998</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.336138988602719e-06</v>
+        <v>-3.153248520710033e-06</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.0007559999999999995</v>
+        <v>0.0003779999999999998</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.588218381622006e-06</v>
+        <v>-3.748148437499972e-06</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0007679999999999995</v>
+        <v>0.0003839999999999997</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.865488525209368e-06</v>
+        <v>-4.402497781065059e-06</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.0007799999999999994</v>
+        <v>0.0003899999999999997</v>
       </c>
       <c r="B66" t="n">
-        <v>-2.168755438761521e-06</v>
+        <v>-5.118198733357949e-06</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.0007919999999999994</v>
+        <v>0.0003959999999999997</v>
       </c>
       <c r="B67" t="n">
-        <v>-2.498837834894036e-06</v>
+        <v>-5.89718343195262e-06</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.0008039999999999994</v>
+        <v>0.0004019999999999997</v>
       </c>
       <c r="B68" t="n">
-        <v>-2.856567119441323e-06</v>
+        <v>-6.741413970044332e-06</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.0008159999999999993</v>
+        <v>0.0004079999999999997</v>
       </c>
       <c r="B69" t="n">
-        <v>-3.242787391456637e-06</v>
+        <v>-7.652882396449653e-06</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.0008279999999999993</v>
+        <v>0.0004139999999999997</v>
       </c>
       <c r="B70" t="n">
-        <v>-3.658355443212081e-06</v>
+        <v>-8.633610715606448e-06</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.0008399999999999993</v>
+        <v>0.0004199999999999996</v>
       </c>
       <c r="B71" t="n">
-        <v>-4.104140760198609e-06</v>
+        <v>-9.6856508875739e-06</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.0008519999999999992</v>
+        <v>0.0004259999999999996</v>
       </c>
       <c r="B72" t="n">
-        <v>-4.581025521126012e-06</v>
+        <v>-1.081108482803247e-05</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.0008639999999999992</v>
+        <v>0.0004319999999999996</v>
       </c>
       <c r="B73" t="n">
-        <v>-5.08990459792293e-06</v>
+        <v>-1.201202440828394e-05</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.0008759999999999992</v>
+        <v>0.0004379999999999996</v>
       </c>
       <c r="B74" t="n">
-        <v>-5.631685555736853e-06</v>
+        <v>-1.329061145525139e-05</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.0008879999999999991</v>
+        <v>0.0004439999999999996</v>
       </c>
       <c r="B75" t="n">
-        <v>-6.207288652934116e-06</v>
+        <v>-1.464901775147919e-05</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.0008999999999999991</v>
+        <v>0.0004499999999999996</v>
       </c>
       <c r="B76" t="n">
-        <v>-6.817646841099895e-06</v>
+        <v>-1.608944503513303e-05</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.0009119999999999991</v>
+        <v>0.0004559999999999995</v>
       </c>
       <c r="B77" t="n">
-        <v>-7.463705765038215e-06</v>
+        <v>-1.761412499999988e-05</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.000923999999999999</v>
+        <v>0.0004619999999999995</v>
       </c>
       <c r="B78" t="n">
-        <v>-8.146423762771949e-06</v>
+        <v>-1.922531929548803e-05</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.000935999999999999</v>
+        <v>0.0004679999999999995</v>
       </c>
       <c r="B79" t="n">
-        <v>-8.866771865542815e-06</v>
+        <v>-2.092531952662708e-05</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.000947999999999999</v>
+        <v>0.0004739999999999995</v>
       </c>
       <c r="B80" t="n">
-        <v>-9.625733797811372e-06</v>
+        <v>-2.271644725406789e-05</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.0009599999999999989</v>
+        <v>0.0004799999999999995</v>
       </c>
       <c r="B81" t="n">
-        <v>-1.042430597725703e-05</v>
+        <v>-2.460105399408267e-05</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.0009719999999999989</v>
+        <v>0.0004859999999999995</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.126349751477805e-05</v>
+        <v>-2.658152121856491e-05</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.000983999999999999</v>
+        <v>0.0004919999999999995</v>
       </c>
       <c r="B83" t="n">
-        <v>-1.214433021449153e-05</v>
+        <v>-2.866026035502941e-05</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.0009959999999999991</v>
+        <v>0.0004979999999999995</v>
       </c>
       <c r="B84" t="n">
-        <v>-1.306783857373342e-05</v>
+        <v>-3.083971278661225e-05</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.001007999999999999</v>
+        <v>0.0005039999999999996</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.403506978305851e-05</v>
+        <v>-3.312234985207084e-05</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.001019999999999999</v>
+        <v>0.0005099999999999996</v>
       </c>
       <c r="B86" t="n">
-        <v>-1.504708372624044e-05</v>
+        <v>-3.551067284578386e-05</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.001031999999999999</v>
+        <v>0.0005159999999999996</v>
       </c>
       <c r="B87" t="n">
-        <v>-1.610495298027169e-05</v>
+        <v>-3.800721301775133e-05</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.001043999999999999</v>
+        <v>0.0005219999999999997</v>
       </c>
       <c r="B88" t="n">
-        <v>-1.720976281536359e-05</v>
+        <v>-4.061453157359454e-05</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.001055999999999999</v>
+        <v>0.0005279999999999997</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.836261119494633e-05</v>
+        <v>-4.333521967455609e-05</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.001068</v>
+        <v>0.0005339999999999998</v>
       </c>
       <c r="B90" t="n">
-        <v>-1.956460877566891e-05</v>
+        <v>-4.617189843749988e-05</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.00108</v>
+        <v>0.0005399999999999998</v>
       </c>
       <c r="B91" t="n">
-        <v>-2.081687890739923e-05</v>
+        <v>-4.912721893491115e-05</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.001092</v>
+        <v>0.0005459999999999998</v>
       </c>
       <c r="B92" t="n">
-        <v>-2.212055763322397e-05</v>
+        <v>-5.220386219489636e-05</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.001104</v>
+        <v>0.0005519999999999999</v>
       </c>
       <c r="B93" t="n">
-        <v>-2.347679368944872e-05</v>
+        <v>-5.540453920118336e-05</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.001116</v>
+        <v>0.0005579999999999999</v>
       </c>
       <c r="B94" t="n">
-        <v>-2.488674850559787e-05</v>
+        <v>-5.873199089312125e-05</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.001128</v>
+        <v>0.0005639999999999999</v>
       </c>
       <c r="B95" t="n">
-        <v>-2.635159620441467e-05</v>
+        <v>-6.218898816568045e-05</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.00114</v>
+        <v>0.00057</v>
       </c>
       <c r="B96" t="n">
-        <v>-2.787252360186124e-05</v>
+        <v>-6.577833186945265e-05</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.001152</v>
+        <v>0.000576</v>
       </c>
       <c r="B97" t="n">
-        <v>-2.945073020711851e-05</v>
+        <v>-6.950285281065091e-05</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.001164</v>
+        <v>0.0005820000000000001</v>
       </c>
       <c r="B98" t="n">
-        <v>-3.108742822258627e-05</v>
+        <v>-7.336541175110951e-05</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.001176</v>
+        <v>0.0005880000000000001</v>
       </c>
       <c r="B99" t="n">
-        <v>-3.278384254388314e-05</v>
+        <v>-7.736889940828408e-05</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.001188</v>
+        <v>0.0005940000000000001</v>
       </c>
       <c r="B100" t="n">
-        <v>-3.454121075984663e-05</v>
+        <v>-8.151623645525156e-05</v>
       </c>
     </row>
   </sheetData>
